--- a/Inputs/RED programme IDs.xlsx
+++ b/Inputs/RED programme IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clegge\OneDrive - Wellcome Cloud\GitHub - R Projects\ODA_research_and_innovation\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{E60DEAA6-2F35-476B-AF39-69C2F5CBDD7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8EC304C-739E-4184-B9A9-74B136F580A2}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{E60DEAA6-2F35-476B-AF39-69C2F5CBDD7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0913A9B-1278-437A-83F8-0A9685758252}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A8D4615A-161F-4F00-BB61-9B698CAB66FB}"/>
+    <workbookView xWindow="-28920" yWindow="1188" windowWidth="29040" windowHeight="15840" xr2:uid="{A8D4615A-161F-4F00-BB61-9B698CAB66FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,15 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>ProjectID</t>
-  </si>
-  <si>
-    <t>StageDescription</t>
-  </si>
-  <si>
-    <t>Implementation</t>
   </si>
 </sst>
 </file>
@@ -393,1056 +384,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C196102-7314-4D65-9FE0-FF96DE854E33}">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:A134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>100039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>100089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>100090</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>100091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>100265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>113710</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>114396</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>200021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>200022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>200083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>200300</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>200425</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>200574</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>200822</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>201009</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>201267</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>201871</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>201879</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>201880</v>
       </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>201884</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>202168</v>
       </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>202348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>202568</v>
       </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>202749</v>
       </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>202766</v>
       </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>202835</v>
       </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>202960</v>
       </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>203041</v>
       </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>203048</v>
       </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>203050</v>
       </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>203051</v>
       </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>203052</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>203067</v>
       </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>203089</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>203212</v>
       </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>203339</v>
       </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>203506</v>
       </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>203529</v>
       </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>203545</v>
       </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>203569</v>
       </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>203638</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>203650</v>
       </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>203704</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>203706</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>203752</v>
       </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>203804</v>
       </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>203835</v>
       </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>203844</v>
       </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>203872</v>
       </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>203933</v>
       </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>204133</v>
       </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>204152</v>
       </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>204153</v>
       </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>204291</v>
       </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>204322</v>
       </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>204324</v>
       </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>204326</v>
       </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>204343</v>
       </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>204415</v>
       </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>204420</v>
       </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>204427</v>
       </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>204428</v>
       </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>204570</v>
       </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>204571</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>204725</v>
       </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>204764</v>
       </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>204765</v>
       </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>204773</v>
       </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>204806</v>
       </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>204836</v>
       </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>204867</v>
       </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>204931</v>
       </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>204933</v>
       </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>204988</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>205053</v>
       </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>205103</v>
       </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>205109</v>
       </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>205121</v>
       </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>205148</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>205155</v>
       </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>205271</v>
       </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>205283</v>
       </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>205288</v>
       </c>
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>300049</v>
       </c>
-      <c r="B76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>300100</v>
       </c>
-      <c r="B77" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>300111</v>
       </c>
-      <c r="B78" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>300123</v>
       </c>
-      <c r="B79" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>300124</v>
       </c>
-      <c r="B80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>300125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>300126</v>
       </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>300180</v>
       </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>300211</v>
       </c>
-      <c r="B83" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>300288</v>
       </c>
-      <c r="B84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>300294</v>
       </c>
-      <c r="B85" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>300341</v>
       </c>
-      <c r="B86" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>300342</v>
       </c>
-      <c r="B87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>300343</v>
       </c>
-      <c r="B88" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>300346</v>
       </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>300347</v>
       </c>
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>300361</v>
       </c>
-      <c r="B91" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>300369</v>
       </c>
-      <c r="B92" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>300384</v>
       </c>
-      <c r="B93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>300403</v>
       </c>
-      <c r="B94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>300405</v>
       </c>
-      <c r="B95" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>300442</v>
       </c>
-      <c r="B96" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>300443</v>
       </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>300446</v>
       </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>300482</v>
       </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>300484</v>
       </c>
-      <c r="B100" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>300504</v>
       </c>
-      <c r="B101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>300574</v>
       </c>
-      <c r="B102" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>300615</v>
       </c>
-      <c r="B103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>300632</v>
       </c>
-      <c r="B104" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>300642</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>300644</v>
       </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>300649</v>
       </c>
-      <c r="B107" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>300654</v>
       </c>
-      <c r="B108" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>300655</v>
       </c>
-      <c r="B109" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>300656</v>
       </c>
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>300704</v>
       </c>
-      <c r="B111" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>300708</v>
       </c>
-      <c r="B112" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>300728</v>
       </c>
-      <c r="B113" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>300755</v>
       </c>
-      <c r="B114" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>300760</v>
       </c>
-      <c r="B115" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>300769</v>
       </c>
-      <c r="B116" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>300781</v>
       </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>300785</v>
       </c>
-      <c r="B118" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>300815</v>
       </c>
-      <c r="B119" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>300836</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>300849</v>
       </c>
-      <c r="B120" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>300966</v>
       </c>
-      <c r="B121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>301108</v>
       </c>
-      <c r="B122" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>301132</v>
       </c>
-      <c r="B123" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>301133</v>
       </c>
-      <c r="B124" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>301134</v>
       </c>
-      <c r="B125" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>301135</v>
       </c>
-      <c r="B126" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>301136</v>
       </c>
-      <c r="B127" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>301138</v>
       </c>
-      <c r="B128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>301139</v>
-      </c>
-      <c r="B129" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E6713CC7F31D7C498DF06765AF1263E4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49295815813be5682bd1502ac40ad112">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="9e449739-2858-4f41-8e5c-7dc6df20853e" xmlns:ns4="05c15269-663a-4da2-bb2b-1510839404b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57db594e689bb932d2839527134c19ea" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1676,15 +1312,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1695,6 +1322,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6009B33-E1FF-42A0-90A2-CE37C38E4012}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC68F4C8-8D2E-4F7F-8062-55487B968990}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1714,28 +1349,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6009B33-E1FF-42A0-90A2-CE37C38E4012}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9B7EC41-0570-4CF6-884E-7FDFEC422000}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9e449739-2858-4f41-8e5c-7dc6df20853e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="05c15269-663a-4da2-bb2b-1510839404b9"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="05c15269-663a-4da2-bb2b-1510839404b9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9e449739-2858-4f41-8e5c-7dc6df20853e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>